--- a/outputs/c/_wine_both.xlsx
+++ b/outputs/c/_wine_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="117">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -363,10 +360,16 @@
     <t>white</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,19 +744,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>0</v>
@@ -762,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -780,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -791,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>34</v>
@@ -803,22 +806,22 @@
         <v>818</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -828,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
@@ -843,13 +846,13 @@
         <v>818</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>232</v>
@@ -872,19 +875,19 @@
         <v>2444</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -894,10 +897,10 @@
         <v>11</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T3" s="2">
         <v>232</v>
@@ -909,13 +912,13 @@
         <v>2444</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>95</v>
@@ -938,22 +941,22 @@
         <v>614</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -963,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T4" s="2">
         <v>4</v>
@@ -978,13 +981,13 @@
         <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>680</v>
@@ -1007,19 +1010,19 @@
         <v>6050</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1029,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1044,13 +1047,13 @@
         <v>124</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>459</v>
@@ -1073,19 +1076,19 @@
         <v>3444</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1095,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T6" s="2">
         <v>325</v>
@@ -1110,13 +1113,13 @@
         <v>2272</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1127,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>538</v>
@@ -1139,19 +1142,19 @@
         <v>4672</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1161,7 +1164,7 @@
         <v>9</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1176,13 +1179,13 @@
         <v>4672</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="Y7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3">
         <v>505</v>
@@ -1205,19 +1208,19 @@
         <v>4496</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="M8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1227,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T8" s="2">
         <v>7</v>
@@ -1242,13 +1245,13 @@
         <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>373</v>
@@ -1271,19 +1274,19 @@
         <v>3504</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1293,10 +1296,10 @@
         <v>10</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T9" s="2">
         <v>495</v>
@@ -1308,13 +1311,13 @@
         <v>4448</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>512</v>
@@ -1337,19 +1340,19 @@
         <v>4620</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -1359,10 +1362,10 @@
         <v>11</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T10" s="2">
         <v>28</v>
@@ -1374,13 +1377,13 @@
         <v>294</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="Y10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,25 +1391,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1417,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>276</v>
@@ -1429,10 +1432,10 @@
         <v>2894</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -1455,10 +1458,10 @@
         <v>44</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
@@ -1481,10 +1484,10 @@
         <v>124</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1495,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3">
         <v>654</v>
@@ -1507,10 +1510,10 @@
         <v>5810</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,7 +1524,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>659</v>
@@ -1533,10 +1536,10 @@
         <v>5836</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1550,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>676</v>
@@ -1559,10 +1562,10 @@
         <v>6004</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1573,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
         <v>686</v>
@@ -1585,10 +1588,10 @@
         <v>6126</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1599,7 +1602,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
         <v>688</v>
@@ -1611,10 +1614,10 @@
         <v>6246</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1625,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>691</v>
@@ -1637,10 +1640,10 @@
         <v>6312</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,7 +1654,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>697</v>
@@ -1663,10 +1666,10 @@
         <v>6508</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
         <v>325</v>
@@ -1689,10 +1692,10 @@
         <v>2272</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3">
         <v>328</v>
@@ -1715,10 +1718,10 @@
         <v>2288</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1729,7 +1732,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
         <v>356</v>
@@ -1741,10 +1744,10 @@
         <v>2484</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1755,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <v>375</v>
@@ -1767,10 +1770,10 @@
         <v>2578</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1781,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
         <v>390</v>
@@ -1793,10 +1796,10 @@
         <v>2692</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1807,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
         <v>464</v>
@@ -1819,10 +1822,10 @@
         <v>3584</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1833,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
         <v>469</v>
@@ -1845,10 +1848,10 @@
         <v>3682</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1859,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
         <v>518</v>
@@ -1871,10 +1874,10 @@
         <v>4224</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1885,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3">
         <v>7</v>
@@ -1897,10 +1900,10 @@
         <v>50</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1911,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3">
         <v>255</v>
@@ -1923,10 +1926,10 @@
         <v>2730</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1937,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>419</v>
@@ -1949,10 +1952,10 @@
         <v>3886</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1963,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3">
         <v>495</v>
@@ -1975,10 +1978,10 @@
         <v>4448</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1989,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3">
         <v>659</v>
@@ -2001,10 +2004,10 @@
         <v>5610</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2015,7 +2018,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3">
         <v>28</v>
@@ -2027,10 +2030,10 @@
         <v>294</v>
       </c>
       <c r="G35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2041,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3">
         <v>84</v>
@@ -2053,10 +2056,10 @@
         <v>914</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2067,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3">
         <v>132</v>
@@ -2079,10 +2082,10 @@
         <v>1568</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2093,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3">
         <v>172</v>
@@ -2105,10 +2108,10 @@
         <v>1942</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2119,7 +2122,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3">
         <v>245</v>
@@ -2131,10 +2134,10 @@
         <v>2430</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2145,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3">
         <v>280</v>
@@ -2157,10 +2160,10 @@
         <v>2592</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2171,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3">
         <v>285</v>
@@ -2183,10 +2186,10 @@
         <v>2644</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2197,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="3">
         <v>355</v>
@@ -2209,10 +2212,10 @@
         <v>3434</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2223,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="3">
         <v>401</v>
@@ -2235,10 +2238,10 @@
         <v>3742</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2249,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="3">
         <v>410</v>
@@ -2261,10 +2264,10 @@
         <v>3788</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2275,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="3">
         <v>470</v>
@@ -2287,10 +2290,10 @@
         <v>4310</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2301,7 +2304,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3">
         <v>531</v>
@@ -2313,10 +2316,10 @@
         <v>4718</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2327,7 +2330,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="3">
         <v>563</v>
@@ -2339,10 +2342,10 @@
         <v>4890</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
